--- a/Stories-Cuny_Sipp_Lefevre_Aubert.xlsx
+++ b/Stories-Cuny_Sipp_Lefevre_Aubert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>USER STORIES Atelier 2</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Créer fonctionnalité : Inscription</t>
-  </si>
-  <si>
-    <t>Créer fonctionnalité : Récupérer résultats</t>
   </si>
   <si>
     <t>Créer README</t>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -539,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="H1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -580,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -594,11 +591,11 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -613,7 +610,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -628,7 +625,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -643,7 +640,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -658,7 +655,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -669,14 +666,14 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
       <c r="A14">
         <v>7</v>
       </c>
@@ -688,10 +685,10 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="120">
@@ -705,14 +702,14 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -727,7 +724,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -740,9 +737,9 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="5"/>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -757,7 +754,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45">
@@ -772,10 +769,10 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -790,7 +787,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
@@ -803,12 +800,12 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5"/>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -821,9 +818,9 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -839,9 +836,9 @@
       <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="4"/>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -854,9 +851,9 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="5"/>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -869,9 +866,12 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -882,14 +882,11 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="4"/>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -902,9 +899,9 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -917,42 +914,27 @@
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="4"/>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="135">
       <c r="A29">
         <v>22</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="135">
-      <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Stories-Cuny_Sipp_Lefevre_Aubert.xlsx
+++ b/Stories-Cuny_Sipp_Lefevre_Aubert.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -608,7 +608,7 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" t="s">
         <v>37</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="F26" t="s">
         <v>37</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="F27" t="s">
         <v>37</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" t="s">
         <v>37</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="4"/>
       <c r="F29" t="s">
         <v>37</v>
       </c>

--- a/Stories-Cuny_Sipp_Lefevre_Aubert.xlsx
+++ b/Stories-Cuny_Sipp_Lefevre_Aubert.xlsx
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -623,7 +623,7 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>37</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>37</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5"/>
       <c r="F22" t="s">
         <v>37</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" t="s">
         <v>37</v>
       </c>
